--- a/Jogos_do_Dia/2022-12-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="G2" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>6.05</v>
+        <v>6.55</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -653,10 +653,10 @@
         <v>2.8</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="N2" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="O2" t="n">
         <v>1.46</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>3.67</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>4.97</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>3.78</v>
       </c>
       <c r="G7" t="n">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="I7" t="n">
         <v>1.08</v>
@@ -1203,10 +1203,10 @@
         <v>2.7</v>
       </c>
       <c r="M7" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>3.33</v>
+        <v>3.54</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>3.24</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1355,25 +1355,25 @@
         <v>3.09</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
       <c r="H9" t="n">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
       <c r="I9" t="n">
         <v>1.13</v>
@@ -1420,13 +1420,13 @@
         <v>1.53</v>
       </c>
       <c r="L9" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M9" t="n">
         <v>2.6</v>
       </c>
       <c r="N9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O9" t="n">
         <v>1.53</v>
@@ -1465,25 +1465,25 @@
         <v>2.37</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.57</v>
+        <v>3.46</v>
       </c>
       <c r="I11" t="n">
         <v>1.14</v>
@@ -1637,16 +1637,16 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M11" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.57</v>
@@ -1685,28 +1685,28 @@
         <v>3.13</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2022-12-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -653,10 +653,10 @@
         <v>2.8</v>
       </c>
       <c r="M2" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.46</v>
@@ -695,16 +695,16 @@
         <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE2" t="n">
         <v>1.64</v>
@@ -713,10 +713,10 @@
         <v>2.03</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -805,28 +805,28 @@
         <v>2.33</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>5.75</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="N4" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -915,25 +915,25 @@
         <v>3.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V5" t="n">
         <v>3</v>
@@ -1025,28 +1025,28 @@
         <v>4.12</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="G6" t="n">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="N6" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1135,13 +1135,13 @@
         <v>3.31</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.78</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="I7" t="n">
         <v>1.08</v>
@@ -1206,7 +1206,7 @@
         <v>2.25</v>
       </c>
       <c r="N7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1245,28 +1245,28 @@
         <v>2.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.88</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>3.24</v>
       </c>
       <c r="M8" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="N8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1376,7 +1376,7 @@
         <v>3.04</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.13</v>
@@ -1420,7 +1420,7 @@
         <v>1.53</v>
       </c>
       <c r="L9" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M9" t="n">
         <v>2.6</v>
@@ -1486,7 +1486,7 @@
         <v>2.88</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="G10" t="n">
-        <v>3.32</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="N10" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1575,28 +1575,28 @@
         <v>2.92</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
         <v>1.14</v>
@@ -1637,10 +1637,10 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="L11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
         <v>2.75</v>
